--- a/teaching/traditional_assets/database/data/egypt/egypt_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/egypt/egypt_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.02050000000000002</v>
+        <v>-0.008800000000000002</v>
       </c>
       <c r="E2">
-        <v>0.261</v>
-      </c>
-      <c r="F2">
-        <v>0.215</v>
+        <v>0.135</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,91 +609,91 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>115.97</v>
+        <v>426.08</v>
       </c>
       <c r="L2">
-        <v>0.2280539605128609</v>
+        <v>0.4583378154514748</v>
       </c>
       <c r="M2">
-        <v>50.7</v>
+        <v>65.997</v>
       </c>
       <c r="N2">
-        <v>0.07230462065031375</v>
+        <v>0.01293855865746549</v>
       </c>
       <c r="O2">
-        <v>0.4371820298353022</v>
+        <v>0.1548934472399549</v>
       </c>
       <c r="P2">
-        <v>48.81</v>
+        <v>65.996</v>
       </c>
       <c r="Q2">
-        <v>0.0696092413006275</v>
+        <v>0.0129383626097867</v>
       </c>
       <c r="R2">
-        <v>0.4208847115633353</v>
+        <v>0.1548911002628614</v>
       </c>
       <c r="S2">
-        <v>1.89</v>
+        <v>0.0009999999999994458</v>
       </c>
       <c r="T2">
-        <v>0.03727810650887573</v>
+        <v>1.515220388804712e-05</v>
       </c>
       <c r="U2">
-        <v>467.33</v>
+        <v>3272.36</v>
       </c>
       <c r="V2">
-        <v>0.6664717626925271</v>
+        <v>0.6415385821831869</v>
       </c>
       <c r="W2">
-        <v>0.2560124127230411</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="X2">
-        <v>0.04417021810235294</v>
+        <v>0.05592028349515488</v>
       </c>
       <c r="Y2">
-        <v>0.2118421946206882</v>
+        <v>0.1119118843370129</v>
       </c>
       <c r="Z2">
-        <v>1.71640733115064</v>
+        <v>0.0969703670942061</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05305244431594234</v>
+        <v>0.0535687177452608</v>
       </c>
       <c r="AC2">
-        <v>-0.05305244431594234</v>
+        <v>-0.0535687177452608</v>
       </c>
       <c r="AD2">
-        <v>892</v>
+        <v>11074.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>892</v>
+        <v>11074.3</v>
       </c>
       <c r="AG2">
-        <v>424.67</v>
+        <v>7801.939999999999</v>
       </c>
       <c r="AH2">
-        <v>0.5598794878232488</v>
+        <v>0.6846510995295237</v>
       </c>
       <c r="AI2">
-        <v>0.5102099182062575</v>
+        <v>0.7273187006607033</v>
       </c>
       <c r="AJ2">
-        <v>0.3771927487187686</v>
+        <v>0.6046731159428153</v>
       </c>
       <c r="AK2">
-        <v>0.3315222058283957</v>
+        <v>0.6526722793679688</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-1.136</v>
+        <v>-0.9450000000000001</v>
       </c>
       <c r="AQ2">
         <v>-0</v>
@@ -719,7 +716,7 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.273</v>
+        <v>-0.04940000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,94 +731,88 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>-4.41</v>
+        <v>-4.07</v>
       </c>
       <c r="L3">
-        <v>-0.9343220338983051</v>
+        <v>-0.4275210084033614</v>
       </c>
       <c r="M3">
-        <v>1.48</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.02084507042253521</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.3356009070294784</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.48</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.02084507042253521</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0.3356009070294784</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
-        <v>6.29</v>
+        <v>4.65</v>
       </c>
       <c r="V3">
-        <v>0.08859154929577465</v>
+        <v>0.07416267942583732</v>
       </c>
       <c r="W3">
-        <v>-0.01943587483472895</v>
+        <v>-0.01911695631751996</v>
       </c>
       <c r="X3">
-        <v>0.03849550612734704</v>
+        <v>0.03035135744956102</v>
       </c>
       <c r="Y3">
-        <v>-0.05793138096207599</v>
+        <v>-0.04946831376708098</v>
       </c>
       <c r="Z3">
-        <v>0.02552869273622154</v>
+        <v>0.05566925910765452</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0426098569809342</v>
+        <v>0.03618051544480634</v>
       </c>
       <c r="AC3">
-        <v>-0.0426098569809342</v>
+        <v>-0.03618051544480634</v>
       </c>
       <c r="AD3">
-        <v>19.6</v>
+        <v>22.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>19.6</v>
+        <v>22.3</v>
       </c>
       <c r="AG3">
-        <v>13.31</v>
+        <v>17.65</v>
       </c>
       <c r="AH3">
-        <v>0.2163355408388521</v>
+        <v>0.2623529411764706</v>
       </c>
       <c r="AI3">
-        <v>0.07489491784486053</v>
+        <v>0.0859344894026975</v>
       </c>
       <c r="AJ3">
-        <v>0.1578697663385127</v>
+        <v>0.2196639701306783</v>
       </c>
       <c r="AK3">
-        <v>0.05211229004345955</v>
+        <v>0.06925642534824406</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.433</v>
-      </c>
-      <c r="AQ3">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -853,28 +844,28 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="L4">
-        <v>0.09423828125</v>
+        <v>0.08139041966935141</v>
       </c>
       <c r="M4">
-        <v>2.98</v>
+        <v>10.9</v>
       </c>
       <c r="N4">
-        <v>0.01184890656063618</v>
+        <v>0.03620059780803719</v>
       </c>
       <c r="O4">
-        <v>0.1544041450777202</v>
+        <v>0.5677083333333334</v>
       </c>
       <c r="P4">
-        <v>2.98</v>
+        <v>10.9</v>
       </c>
       <c r="Q4">
-        <v>0.01184890656063618</v>
+        <v>0.03620059780803719</v>
       </c>
       <c r="R4">
-        <v>0.1544041450777202</v>
+        <v>0.5677083333333334</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -883,55 +874,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>22.5</v>
+        <v>9.42</v>
       </c>
       <c r="V4">
-        <v>0.08946322067594434</v>
+        <v>0.03128528727997343</v>
       </c>
       <c r="W4">
-        <v>0.3922764227642276</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="X4">
-        <v>0.04056109465655187</v>
+        <v>0.03040276221716763</v>
       </c>
       <c r="Y4">
-        <v>0.3517153281076758</v>
+        <v>0.1374294056150002</v>
       </c>
       <c r="Z4">
-        <v>2.009813542688911</v>
+        <v>1.166839788296978</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04720078395074531</v>
+        <v>0.03761985911003193</v>
       </c>
       <c r="AC4">
-        <v>-0.04720078395074531</v>
+        <v>-0.03761985911003193</v>
       </c>
       <c r="AD4">
-        <v>111.6</v>
+        <v>108.3</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>111.6</v>
+        <v>108.3</v>
       </c>
       <c r="AG4">
-        <v>89.09999999999999</v>
+        <v>98.88</v>
       </c>
       <c r="AH4">
-        <v>0.3073533461856238</v>
+        <v>0.264533463605276</v>
       </c>
       <c r="AI4">
-        <v>0.4858511101436657</v>
+        <v>0.4520033388981636</v>
       </c>
       <c r="AJ4">
-        <v>0.2615971814445097</v>
+        <v>0.2472123606180309</v>
       </c>
       <c r="AK4">
-        <v>0.430019305019305</v>
+        <v>0.4295768528977322</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -957,10 +948,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.232</v>
+        <v>0.213</v>
       </c>
       <c r="E5">
-        <v>0.261</v>
+        <v>0.207</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -975,28 +966,28 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>66</v>
+        <v>63.5</v>
       </c>
       <c r="L5">
-        <v>0.4661016949152543</v>
+        <v>0.4191419141914192</v>
       </c>
       <c r="M5">
-        <v>37.5</v>
+        <v>12.4</v>
       </c>
       <c r="N5">
-        <v>0.2886836027713626</v>
+        <v>0.05</v>
       </c>
       <c r="O5">
-        <v>0.5681818181818182</v>
+        <v>0.1952755905511811</v>
       </c>
       <c r="P5">
-        <v>37.5</v>
+        <v>12.4</v>
       </c>
       <c r="Q5">
-        <v>0.2886836027713626</v>
+        <v>0.05</v>
       </c>
       <c r="R5">
-        <v>0.5681818181818182</v>
+        <v>0.1952755905511811</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1005,55 +996,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>380.3</v>
+        <v>55.4</v>
       </c>
       <c r="V5">
-        <v>2.927636643571979</v>
+        <v>0.2233870967741935</v>
       </c>
       <c r="W5">
-        <v>0.2560124127230411</v>
+        <v>0.2100562355276216</v>
       </c>
       <c r="X5">
-        <v>0.04417021810235294</v>
+        <v>0.03181059329096143</v>
       </c>
       <c r="Y5">
-        <v>0.2118421946206882</v>
+        <v>0.1782456422366601</v>
       </c>
       <c r="Z5">
-        <v>-0.2941420855837142</v>
+        <v>8.55932203389831</v>
       </c>
       <c r="AA5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.05305244431594234</v>
+        <v>0.03844566871140354</v>
       </c>
       <c r="AC5">
-        <v>-0.05305244431594234</v>
+        <v>-0.03844566871140354</v>
       </c>
       <c r="AD5">
-        <v>95.7</v>
+        <v>116.5</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>95.7</v>
+        <v>116.5</v>
       </c>
       <c r="AG5">
-        <v>-284.6</v>
+        <v>61.1</v>
       </c>
       <c r="AH5">
-        <v>0.4242021276595744</v>
+        <v>0.3196159122085048</v>
       </c>
       <c r="AI5">
-        <v>0.2361213915618061</v>
+        <v>0.2321642088481467</v>
       </c>
       <c r="AJ5">
-        <v>1.839689722042663</v>
+        <v>0.1976706567453898</v>
       </c>
       <c r="AK5">
-        <v>-11.384</v>
+        <v>0.1368727598566308</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1070,7 +1061,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CI Capital Holding for Financial Investments (CASE:CICH)</t>
+          <t>African Export-Import Bank (MUSE:AEIB.N0004)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1078,9 +1069,6 @@
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="F6">
-        <v>0.215</v>
-      </c>
       <c r="G6">
         <v>0</v>
       </c>
@@ -1094,85 +1082,85 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>30.7</v>
+        <v>307</v>
       </c>
       <c r="L6">
-        <v>0.283471837488458</v>
+        <v>0.7599009900990099</v>
       </c>
       <c r="M6">
-        <v>6.779999999999999</v>
+        <v>31.5</v>
       </c>
       <c r="N6">
-        <v>0.02956825119930222</v>
+        <v>0.007568840405593733</v>
       </c>
       <c r="O6">
-        <v>0.2208469055374593</v>
+        <v>0.1026058631921824</v>
       </c>
       <c r="P6">
-        <v>4.89</v>
+        <v>31.5</v>
       </c>
       <c r="Q6">
-        <v>0.02132577409507196</v>
+        <v>0.007568840405593733</v>
       </c>
       <c r="R6">
-        <v>0.1592833876221498</v>
+        <v>0.1026058631921824</v>
       </c>
       <c r="S6">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.2787610619469026</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>52.9</v>
+        <v>3126.9</v>
       </c>
       <c r="V6">
-        <v>0.2307021369385085</v>
+        <v>0.7513335575952713</v>
       </c>
       <c r="W6">
-        <v>0.2524671052631579</v>
+        <v>0.1122322146669591</v>
       </c>
       <c r="X6">
-        <v>0.06282638974285765</v>
+        <v>0.05592028349515488</v>
       </c>
       <c r="Y6">
-        <v>0.1896407155203003</v>
+        <v>0.05631193117180425</v>
       </c>
       <c r="Z6">
-        <v>0.300749791724521</v>
+        <v>0.04935014169842666</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.06236765605533963</v>
+        <v>0.0535687177452608</v>
       </c>
       <c r="AC6">
-        <v>-0.06236765605533963</v>
+        <v>-0.0535687177452608</v>
       </c>
       <c r="AD6">
-        <v>516.2</v>
+        <v>9800.5</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>516.2</v>
+        <v>9800.5</v>
       </c>
       <c r="AG6">
-        <v>463.3000000000001</v>
+        <v>6673.6</v>
       </c>
       <c r="AH6">
-        <v>0.6924211938296446</v>
+        <v>0.7019259004605258</v>
       </c>
       <c r="AI6">
-        <v>0.7548990933021351</v>
+        <v>0.7579249383250714</v>
       </c>
       <c r="AJ6">
-        <v>0.6689286745596303</v>
+        <v>0.6159071192572494</v>
       </c>
       <c r="AK6">
-        <v>0.7343477571722935</v>
+        <v>0.6807156408739469</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1189,114 +1177,361 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>CI Capital Holding For Financial Investments (S.A.E) (CASE:CICH)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>31.4</v>
+      </c>
+      <c r="L7">
+        <v>0.3681125439624853</v>
+      </c>
+      <c r="M7">
+        <v>8.920999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.03519132149901381</v>
+      </c>
+      <c r="O7">
+        <v>0.2841082802547771</v>
+      </c>
+      <c r="P7">
+        <v>8.92</v>
+      </c>
+      <c r="Q7">
+        <v>0.03518737672583826</v>
+      </c>
+      <c r="R7">
+        <v>0.2840764331210191</v>
+      </c>
+      <c r="S7">
+        <v>0.0009999999999994458</v>
+      </c>
+      <c r="T7">
+        <v>0.0001120950566079415</v>
+      </c>
+      <c r="U7">
+        <v>62.2</v>
+      </c>
+      <c r="V7">
+        <v>0.2453648915187377</v>
+      </c>
+      <c r="W7">
+        <v>0.1996185632549269</v>
+      </c>
+      <c r="X7">
+        <v>0.05768308505754539</v>
+      </c>
+      <c r="Y7">
+        <v>0.1419354781973814</v>
+      </c>
+      <c r="Z7">
+        <v>0.1423564753004005</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.0540340203191685</v>
+      </c>
+      <c r="AC7">
+        <v>-0.0540340203191685</v>
+      </c>
+      <c r="AD7">
+        <v>631.9</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>631.9</v>
+      </c>
+      <c r="AG7">
+        <v>569.6999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>0.7136887282584142</v>
+      </c>
+      <c r="AI7">
+        <v>0.7593126652247055</v>
+      </c>
+      <c r="AJ7">
+        <v>0.6920553935860058</v>
+      </c>
+      <c r="AK7">
+        <v>0.7398701298701298</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>International Company for Leasing S.A.E. (CASE:ICLE)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D8">
+        <v>-0.207</v>
+      </c>
+      <c r="E8">
+        <v>0.0208</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>4.58</v>
+      </c>
+      <c r="L8">
+        <v>0.3982608695652174</v>
+      </c>
+      <c r="M8">
+        <v>1.58</v>
+      </c>
+      <c r="N8">
+        <v>0.03361702127659574</v>
+      </c>
+      <c r="O8">
+        <v>0.3449781659388647</v>
+      </c>
+      <c r="P8">
+        <v>1.58</v>
+      </c>
+      <c r="Q8">
+        <v>0.03361702127659574</v>
+      </c>
+      <c r="R8">
+        <v>0.3449781659388647</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>6.73</v>
+      </c>
+      <c r="V8">
+        <v>0.1431914893617021</v>
+      </c>
+      <c r="W8">
+        <v>0.1085308056872038</v>
+      </c>
+      <c r="X8">
+        <v>0.07521915434780686</v>
+      </c>
+      <c r="Y8">
+        <v>0.03331165133939692</v>
+      </c>
+      <c r="Z8">
+        <v>0.04642712959224869</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0.06386356713763276</v>
+      </c>
+      <c r="AC8">
+        <v>-0.06386356713763276</v>
+      </c>
+      <c r="AD8">
+        <v>181.6</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>181.6</v>
+      </c>
+      <c r="AG8">
+        <v>174.87</v>
+      </c>
+      <c r="AH8">
+        <v>0.7944006999125109</v>
+      </c>
+      <c r="AI8">
+        <v>0.8038955289951306</v>
+      </c>
+      <c r="AJ8">
+        <v>0.7881642403209086</v>
+      </c>
+      <c r="AK8">
+        <v>0.7978737965962495</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>-0.451</v>
+      </c>
+      <c r="AQ8">
+        <v>-0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Al Tawfeek Leasing Company (CASE:ATLC)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>4.38</v>
-      </c>
-      <c r="L7">
-        <v>0.08920570264765784</v>
-      </c>
-      <c r="M7">
-        <v>1.96</v>
-      </c>
-      <c r="N7">
-        <v>0.1005128205128205</v>
-      </c>
-      <c r="O7">
-        <v>0.4474885844748858</v>
-      </c>
-      <c r="P7">
-        <v>1.96</v>
-      </c>
-      <c r="Q7">
-        <v>0.1005128205128205</v>
-      </c>
-      <c r="R7">
-        <v>0.4474885844748858</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>5.34</v>
-      </c>
-      <c r="V7">
-        <v>0.2738461538461539</v>
-      </c>
-      <c r="W7">
-        <v>0.292</v>
-      </c>
-      <c r="X7">
-        <v>0.129158025462398</v>
-      </c>
-      <c r="Y7">
-        <v>0.162841974537602</v>
-      </c>
-      <c r="Z7">
-        <v>0.3754396696742621</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0.06580996840861292</v>
-      </c>
-      <c r="AC7">
-        <v>-0.06580996840861292</v>
-      </c>
-      <c r="AD7">
-        <v>148.9</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>148.9</v>
-      </c>
-      <c r="AG7">
-        <v>143.56</v>
-      </c>
-      <c r="AH7">
-        <v>0.8842042755344418</v>
-      </c>
-      <c r="AI7">
-        <v>0.8873659117997615</v>
-      </c>
-      <c r="AJ7">
-        <v>0.8804121182386851</v>
-      </c>
-      <c r="AK7">
-        <v>0.883663671057491</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>-0.703</v>
-      </c>
-      <c r="AQ7">
+      <c r="D9">
+        <v>0.0318</v>
+      </c>
+      <c r="E9">
+        <v>0.135</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>4.47</v>
+      </c>
+      <c r="L9">
+        <v>0.1401253918495298</v>
+      </c>
+      <c r="M9">
+        <v>0.696</v>
+      </c>
+      <c r="N9">
+        <v>0.02606741573033708</v>
+      </c>
+      <c r="O9">
+        <v>0.1557046979865772</v>
+      </c>
+      <c r="P9">
+        <v>0.696</v>
+      </c>
+      <c r="Q9">
+        <v>0.02606741573033708</v>
+      </c>
+      <c r="R9">
+        <v>0.1557046979865772</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>7.06</v>
+      </c>
+      <c r="V9">
+        <v>0.2644194756554307</v>
+      </c>
+      <c r="W9">
+        <v>0.2365079365079365</v>
+      </c>
+      <c r="X9">
+        <v>0.1279271983480231</v>
+      </c>
+      <c r="Y9">
+        <v>0.1085807381599134</v>
+      </c>
+      <c r="Z9">
+        <v>0.196356026098732</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0.06550280957165021</v>
+      </c>
+      <c r="AC9">
+        <v>-0.06550280957165021</v>
+      </c>
+      <c r="AD9">
+        <v>213.2</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>213.2</v>
+      </c>
+      <c r="AG9">
+        <v>206.14</v>
+      </c>
+      <c r="AH9">
+        <v>0.8887036265110463</v>
+      </c>
+      <c r="AI9">
+        <v>0.9014799154334038</v>
+      </c>
+      <c r="AJ9">
+        <v>0.8853289812746951</v>
+      </c>
+      <c r="AK9">
+        <v>0.8984483960948395</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>-0.494</v>
+      </c>
+      <c r="AQ9">
         <v>-0</v>
       </c>
     </row>
